--- a/aula3/Produtos Novo.xlsx
+++ b/aula3/Produtos Novo.xlsx
@@ -462,16 +462,16 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>5.55</v>
+        <v>4.6</v>
       </c>
       <c r="E2">
-        <v>5549.9445</v>
+        <v>4599.954</v>
       </c>
       <c r="F2">
         <v>1.4</v>
       </c>
       <c r="G2">
-        <v>7769.922299999999</v>
+        <v>6439.935599999999</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -485,16 +485,16 @@
         <v>15</v>
       </c>
       <c r="D3">
-        <v>6.34</v>
+        <v>5.04</v>
       </c>
       <c r="E3">
-        <v>28530</v>
+        <v>22680</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3">
-        <v>57060</v>
+        <v>45360</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -508,16 +508,16 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>5.55</v>
+        <v>4.6</v>
       </c>
       <c r="E4">
-        <v>4994.9445</v>
+        <v>4139.954</v>
       </c>
       <c r="F4">
         <v>1.7</v>
       </c>
       <c r="G4">
-        <v>8491.405649999999</v>
+        <v>7037.921799999999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -531,16 +531,16 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>5.55</v>
+        <v>4.6</v>
       </c>
       <c r="E5">
-        <v>4434.45</v>
+        <v>3675.4</v>
       </c>
       <c r="F5">
         <v>1.7</v>
       </c>
       <c r="G5">
-        <v>7538.565</v>
+        <v>6248.179999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -554,16 +554,16 @@
         <v>15</v>
       </c>
       <c r="D6">
-        <v>6.34</v>
+        <v>5.04</v>
       </c>
       <c r="E6">
-        <v>19020</v>
+        <v>15120</v>
       </c>
       <c r="F6">
         <v>1.9</v>
       </c>
       <c r="G6">
-        <v>36138</v>
+        <v>28728</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -577,16 +577,16 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>5.55</v>
+        <v>4.6</v>
       </c>
       <c r="E7">
-        <v>2666.664</v>
+        <v>2210.208</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7">
-        <v>5333.328</v>
+        <v>4420.416</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -600,16 +600,16 @@
         <v>16</v>
       </c>
       <c r="D8">
-        <v>325.32</v>
+        <v>285.6</v>
       </c>
       <c r="E8">
-        <v>6506.4</v>
+        <v>5712</v>
       </c>
       <c r="F8">
         <v>1.15</v>
       </c>
       <c r="G8">
-        <v>7482.359999999999</v>
+        <v>6568.799999999999</v>
       </c>
     </row>
   </sheetData>
